--- a/sejtfentartás.xlsx
+++ b/sejtfentartás.xlsx
@@ -8,31 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\T14\Documents\IX félév\Szakdoga\Mérés\Sejtfenttartás\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EBF3183-79F4-4C77-88CF-2F63F205ECBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9936102A-9B49-4D4A-8494-DCCD6D239A41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Munka1" sheetId="1" r:id="rId1"/>
     <sheet name="Munka2" sheetId="2" r:id="rId2"/>
     <sheet name="hatékonysági ráta 1" sheetId="3" r:id="rId3"/>
-    <sheet name="viabilitás" sheetId="5" r:id="rId4"/>
-    <sheet name="hatékonysági ráta 2" sheetId="6" r:id="rId5"/>
-    <sheet name="ANOVA" sheetId="7" r:id="rId6"/>
+    <sheet name="Munka3" sheetId="8" r:id="rId4"/>
+    <sheet name="viabilitás" sheetId="5" r:id="rId5"/>
+    <sheet name="hatékonysági ráta 2" sheetId="6" r:id="rId6"/>
+    <sheet name="ANOVA" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">'hatékonysági ráta 1'!$A$2:$B$25</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">'hatékonysági ráta 1'!$C$1</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">'hatékonysági ráta 1'!$C$1</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">'hatékonysági ráta 1'!$C$2:$C$25</definedName>
     <definedName name="_xlchart.v1.2" hidden="1">'hatékonysági ráta 1'!$C$2:$C$25</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'hatékonysági ráta 1'!$A$2:$B$25</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'hatékonysági ráta 1'!$C$1</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">'hatékonysági ráta 1'!$C$2:$C$25</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">'hatékonysági ráta 1'!$A$2:$B$25</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">'hatékonysági ráta 1'!$C$1</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">'hatékonysági ráta 1'!$C$2:$C$25</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">'hatékonysági ráta 1'!$A$2:$B$25</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -55,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="84">
   <si>
     <t>dátum</t>
   </si>
@@ -330,11 +322,17 @@
   <si>
     <t>F-érték</t>
   </si>
+  <si>
+    <t>k</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="172" formatCode="0.0000"/>
+  </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -444,7 +442,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -637,11 +635,91 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="135">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -732,6 +810,72 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" textRotation="180" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" textRotation="180" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" textRotation="180" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" textRotation="180" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="180" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" textRotation="180" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" textRotation="180" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" textRotation="180" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" textRotation="180" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="180" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="16" fontId="2" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="16" fontId="2" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -795,30 +939,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="2" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="16" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -837,67 +957,38 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" textRotation="180" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" textRotation="180" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="2" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" textRotation="180" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="2" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" textRotation="180" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="180" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" textRotation="180" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="2" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" textRotation="180" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="2" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" textRotation="180" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="2" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" textRotation="180" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -908,38 +999,96 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="180" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="2" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="16" fontId="2" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="2" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment textRotation="255"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="172" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="172" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="172" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="172" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -1035,7 +1184,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="hu-HU"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1047,9 +1196,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="3.9038014392498772E-2"/>
-          <c:y val="0.17424229125198318"/>
+          <c:y val="0.15102571068772752"/>
           <c:w val="0.93906667580552294"/>
-          <c:h val="0.53612996642412192"/>
+          <c:h val="0.55934661773438332"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -1617,7 +1766,7 @@
             <c:numRef>
               <c:f>'hatékonysági ráta 1'!$C$2:$C$25</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>1.4965034965034965</c:v>
@@ -1819,7 +1968,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -1923,7 +2072,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4135,14 +4284,14 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>323546</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>390069</xdr:rowOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>762000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
       <xdr:colOff>305405</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>146653</xdr:rowOff>
+      <xdr:rowOff>146652</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4600,13 +4749,13 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="38">
+      <c r="A6" s="66">
         <v>45932</v>
       </c>
-      <c r="B6" s="41" t="s">
+      <c r="B6" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="44" t="s">
+      <c r="C6" s="72" t="s">
         <v>24</v>
       </c>
       <c r="D6" s="4">
@@ -4623,9 +4772,9 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="39"/>
-      <c r="B7" s="42"/>
-      <c r="C7" s="45"/>
+      <c r="A7" s="67"/>
+      <c r="B7" s="70"/>
+      <c r="C7" s="73"/>
       <c r="D7" s="4">
         <v>34.479999999999997</v>
       </c>
@@ -4640,9 +4789,9 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="40"/>
-      <c r="B8" s="43"/>
-      <c r="C8" s="46"/>
+      <c r="A8" s="68"/>
+      <c r="B8" s="71"/>
+      <c r="C8" s="74"/>
       <c r="D8" s="4">
         <v>29.411000000000001</v>
       </c>
@@ -4749,13 +4898,13 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="47">
+      <c r="A13" s="75">
         <v>45939</v>
       </c>
-      <c r="B13" s="50" t="s">
+      <c r="B13" s="78" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="50" t="s">
+      <c r="C13" s="78" t="s">
         <v>24</v>
       </c>
       <c r="D13" s="7">
@@ -4772,9 +4921,9 @@
       </c>
     </row>
     <row r="14" spans="1:7" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="48"/>
-      <c r="B14" s="51"/>
-      <c r="C14" s="51"/>
+      <c r="A14" s="76"/>
+      <c r="B14" s="79"/>
+      <c r="C14" s="79"/>
       <c r="D14" s="7">
         <v>29.9</v>
       </c>
@@ -4789,9 +4938,9 @@
       </c>
     </row>
     <row r="15" spans="1:7" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="49"/>
-      <c r="B15" s="52"/>
-      <c r="C15" s="52"/>
+      <c r="A15" s="77"/>
+      <c r="B15" s="80"/>
+      <c r="C15" s="80"/>
       <c r="D15" s="7">
         <v>35.5</v>
       </c>
@@ -4967,13 +5116,13 @@
       </c>
     </row>
     <row r="23" spans="1:7" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="32">
+      <c r="A23" s="60">
         <v>45967</v>
       </c>
-      <c r="B23" s="35" t="s">
+      <c r="B23" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="35" t="s">
+      <c r="C23" s="63" t="s">
         <v>24</v>
       </c>
       <c r="D23" s="13">
@@ -4990,9 +5139,9 @@
       </c>
     </row>
     <row r="24" spans="1:7" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="33"/>
-      <c r="B24" s="36"/>
-      <c r="C24" s="36"/>
+      <c r="A24" s="61"/>
+      <c r="B24" s="64"/>
+      <c r="C24" s="64"/>
       <c r="D24" s="13">
         <v>22.2</v>
       </c>
@@ -5007,9 +5156,9 @@
       </c>
     </row>
     <row r="25" spans="1:7" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="34"/>
-      <c r="B25" s="37"/>
-      <c r="C25" s="37"/>
+      <c r="A25" s="62"/>
+      <c r="B25" s="65"/>
+      <c r="C25" s="65"/>
       <c r="D25" s="13">
         <v>22.67</v>
       </c>
@@ -5057,10 +5206,10 @@
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="60" t="s">
+      <c r="B1" s="90" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="60"/>
+      <c r="C1" s="90"/>
       <c r="D1" s="15" t="s">
         <v>33</v>
       </c>
@@ -5096,35 +5245,35 @@
       <c r="A2" s="19">
         <v>45922</v>
       </c>
-      <c r="B2" s="59" t="s">
+      <c r="B2" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="59"/>
+      <c r="C2" s="89"/>
       <c r="D2" s="21">
         <v>1.43</v>
       </c>
-      <c r="E2" s="77">
+      <c r="E2" s="39">
         <f>(D2*1000000)/G2</f>
         <v>19066.666666666668</v>
       </c>
       <c r="F2" s="4">
         <v>4.28</v>
       </c>
-      <c r="G2" s="77">
+      <c r="G2" s="39">
         <v>75</v>
       </c>
-      <c r="H2" s="77">
+      <c r="H2" s="39">
         <f>(F2*1000000)/G2</f>
         <v>57066.666666666664</v>
       </c>
-      <c r="I2" s="77">
+      <c r="I2" s="39">
         <f>F2/D2</f>
         <v>2.9930069930069934</v>
       </c>
-      <c r="J2" s="78">
+      <c r="J2" s="40">
         <v>2</v>
       </c>
-      <c r="K2" s="79">
+      <c r="K2" s="40">
         <f t="shared" ref="K2:K31" si="0">I2/J2</f>
         <v>1.4965034965034967</v>
       </c>
@@ -5140,35 +5289,35 @@
       <c r="A3" s="19">
         <v>45924</v>
       </c>
-      <c r="B3" s="59" t="s">
+      <c r="B3" s="89" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="59"/>
-      <c r="D3" s="80">
+      <c r="C3" s="89"/>
+      <c r="D3" s="41">
         <v>3.5</v>
       </c>
-      <c r="E3" s="77">
+      <c r="E3" s="39">
         <f t="shared" ref="E3:E31" si="1">(D3*1000000)/G3</f>
         <v>20000</v>
       </c>
       <c r="F3" s="4">
         <v>20.675999999999998</v>
       </c>
-      <c r="G3" s="77">
+      <c r="G3" s="39">
         <v>175</v>
       </c>
-      <c r="H3" s="77">
+      <c r="H3" s="39">
         <f t="shared" ref="H3:H31" si="2">(F3*1000000)/G3</f>
         <v>118148.57142857143</v>
       </c>
-      <c r="I3" s="77">
-        <f t="shared" ref="I3:I7" si="3">F3/D3</f>
+      <c r="I3" s="39">
+        <f t="shared" ref="I3:I6" si="3">F3/D3</f>
         <v>5.9074285714285706</v>
       </c>
-      <c r="J3" s="79">
+      <c r="J3" s="40">
         <v>2</v>
       </c>
-      <c r="K3" s="79">
+      <c r="K3" s="40">
         <f t="shared" si="0"/>
         <v>2.9537142857142853</v>
       </c>
@@ -5184,36 +5333,36 @@
       <c r="A4" s="19">
         <v>45926</v>
       </c>
-      <c r="B4" s="59" t="s">
+      <c r="B4" s="89" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="59"/>
-      <c r="D4" s="80">
+      <c r="C4" s="89"/>
+      <c r="D4" s="41">
         <v>3.75</v>
       </c>
-      <c r="E4" s="77">
+      <c r="E4" s="39">
         <f t="shared" si="1"/>
         <v>15000</v>
       </c>
       <c r="F4" s="4">
         <v>48.96</v>
       </c>
-      <c r="G4" s="77">
+      <c r="G4" s="39">
         <f>75+175</f>
         <v>250</v>
       </c>
-      <c r="H4" s="77">
+      <c r="H4" s="39">
         <f t="shared" si="2"/>
         <v>195840</v>
       </c>
-      <c r="I4" s="77">
+      <c r="I4" s="39">
         <f t="shared" si="3"/>
         <v>13.056000000000001</v>
       </c>
-      <c r="J4" s="79">
+      <c r="J4" s="40">
         <v>3</v>
       </c>
-      <c r="K4" s="79">
+      <c r="K4" s="40">
         <f t="shared" si="0"/>
         <v>4.3520000000000003</v>
       </c>
@@ -5226,40 +5375,40 @@
       </c>
     </row>
     <row r="5" spans="1:13" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="58">
+      <c r="A5" s="88">
         <v>45929</v>
       </c>
-      <c r="B5" s="59" t="s">
+      <c r="B5" s="89" t="s">
         <v>19</v>
       </c>
       <c r="C5" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="D5" s="80">
+      <c r="D5" s="41">
         <v>8.75</v>
       </c>
-      <c r="E5" s="77">
+      <c r="E5" s="39">
         <f t="shared" si="1"/>
         <v>50000</v>
       </c>
       <c r="F5" s="4">
         <v>37.04</v>
       </c>
-      <c r="G5" s="77">
+      <c r="G5" s="39">
         <v>175</v>
       </c>
-      <c r="H5" s="77">
+      <c r="H5" s="39">
         <f t="shared" si="2"/>
         <v>211657.14285714287</v>
       </c>
-      <c r="I5" s="77">
+      <c r="I5" s="39">
         <f t="shared" si="3"/>
         <v>4.2331428571428571</v>
       </c>
-      <c r="J5" s="79">
+      <c r="J5" s="40">
         <v>3</v>
       </c>
-      <c r="K5" s="79">
+      <c r="K5" s="40">
         <f t="shared" si="0"/>
         <v>1.4110476190476191</v>
       </c>
@@ -5272,36 +5421,36 @@
       </c>
     </row>
     <row r="6" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="58"/>
-      <c r="B6" s="59"/>
+      <c r="A6" s="88"/>
+      <c r="B6" s="89"/>
       <c r="C6" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="80">
+      <c r="D6" s="41">
         <v>8.75</v>
       </c>
-      <c r="E6" s="77">
+      <c r="E6" s="39">
         <f t="shared" si="1"/>
         <v>50000</v>
       </c>
       <c r="F6" s="4">
         <v>34.479999999999997</v>
       </c>
-      <c r="G6" s="77">
+      <c r="G6" s="39">
         <v>175</v>
       </c>
-      <c r="H6" s="77">
+      <c r="H6" s="39">
         <f t="shared" si="2"/>
         <v>197028.57142857142</v>
       </c>
-      <c r="I6" s="77">
+      <c r="I6" s="39">
         <f t="shared" si="3"/>
         <v>3.9405714285714284</v>
       </c>
-      <c r="J6" s="79">
+      <c r="J6" s="40">
         <v>3</v>
       </c>
-      <c r="K6" s="79">
+      <c r="K6" s="40">
         <f t="shared" si="0"/>
         <v>1.3135238095238095</v>
       </c>
@@ -5314,36 +5463,36 @@
       </c>
     </row>
     <row r="7" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="58"/>
-      <c r="B7" s="59"/>
+      <c r="A7" s="88"/>
+      <c r="B7" s="89"/>
       <c r="C7" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="D7" s="80">
+      <c r="D7" s="41">
         <v>8.75</v>
       </c>
-      <c r="E7" s="77">
+      <c r="E7" s="39">
         <f t="shared" si="1"/>
         <v>50000</v>
       </c>
       <c r="F7" s="4">
         <v>29.411000000000001</v>
       </c>
-      <c r="G7" s="77">
+      <c r="G7" s="39">
         <v>175</v>
       </c>
-      <c r="H7" s="77">
+      <c r="H7" s="39">
         <f t="shared" si="2"/>
         <v>168062.85714285713</v>
       </c>
-      <c r="I7" s="77">
+      <c r="I7" s="39">
         <f>F7/D7</f>
         <v>3.3612571428571432</v>
       </c>
-      <c r="J7" s="79">
+      <c r="J7" s="40">
         <v>3</v>
       </c>
-      <c r="K7" s="79">
+      <c r="K7" s="40">
         <f t="shared" si="0"/>
         <v>1.1204190476190476</v>
       </c>
@@ -5356,92 +5505,92 @@
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A8" s="61">
+      <c r="A8" s="81">
         <v>45932</v>
       </c>
-      <c r="B8" s="62" t="s">
+      <c r="B8" s="82" t="s">
         <v>23</v>
       </c>
       <c r="C8" s="20" t="s">
         <v>39</v>
       </c>
       <c r="D8" s="22"/>
-      <c r="E8" s="77">
+      <c r="E8" s="39">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F8" s="77"/>
-      <c r="G8" s="77">
+      <c r="F8" s="39"/>
+      <c r="G8" s="39">
         <v>175</v>
       </c>
-      <c r="H8" s="77">
+      <c r="H8" s="39">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I8" s="77" t="e">
+      <c r="I8" s="39" t="e">
         <f t="shared" ref="I8:I31" si="5">F8/D8</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J8" s="79"/>
-      <c r="K8" s="79" t="e">
+      <c r="J8" s="40"/>
+      <c r="K8" s="40" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A9" s="61"/>
-      <c r="B9" s="62"/>
+      <c r="A9" s="81"/>
+      <c r="B9" s="82"/>
       <c r="C9" s="20" t="s">
         <v>38</v>
       </c>
       <c r="D9" s="22"/>
-      <c r="E9" s="77">
+      <c r="E9" s="39">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F9" s="77"/>
-      <c r="G9" s="77">
+      <c r="F9" s="39"/>
+      <c r="G9" s="39">
         <v>175</v>
       </c>
-      <c r="H9" s="77">
+      <c r="H9" s="39">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I9" s="77" t="e">
+      <c r="I9" s="39" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J9" s="79"/>
-      <c r="K9" s="79" t="e">
+      <c r="J9" s="40"/>
+      <c r="K9" s="40" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="61"/>
-      <c r="B10" s="62"/>
+      <c r="A10" s="81"/>
+      <c r="B10" s="82"/>
       <c r="C10" s="20" t="s">
         <v>40</v>
       </c>
       <c r="D10" s="22"/>
-      <c r="E10" s="77">
+      <c r="E10" s="39">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F10" s="77"/>
-      <c r="G10" s="77">
+      <c r="F10" s="39"/>
+      <c r="G10" s="39">
         <v>175</v>
       </c>
-      <c r="H10" s="77">
+      <c r="H10" s="39">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I10" s="77" t="e">
+      <c r="I10" s="39" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J10" s="79"/>
-      <c r="K10" s="79" t="e">
+      <c r="J10" s="40"/>
+      <c r="K10" s="40" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
@@ -5450,35 +5599,35 @@
       <c r="A11" s="23">
         <v>45929</v>
       </c>
-      <c r="B11" s="56" t="s">
+      <c r="B11" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="56"/>
+      <c r="C11" s="87"/>
       <c r="D11" s="7">
         <v>1.5</v>
       </c>
-      <c r="E11" s="74">
+      <c r="E11" s="37">
         <f t="shared" si="1"/>
         <v>20000</v>
       </c>
       <c r="F11" s="7">
         <v>4.8140000000000001</v>
       </c>
-      <c r="G11" s="74">
+      <c r="G11" s="37">
         <v>75</v>
       </c>
-      <c r="H11" s="74">
+      <c r="H11" s="37">
         <f t="shared" si="2"/>
         <v>64186.666666666664</v>
       </c>
-      <c r="I11" s="74">
+      <c r="I11" s="37">
         <f t="shared" si="5"/>
         <v>3.2093333333333334</v>
       </c>
-      <c r="J11" s="75">
+      <c r="J11" s="38">
         <v>2</v>
       </c>
-      <c r="K11" s="76">
+      <c r="K11" s="38">
         <f t="shared" si="0"/>
         <v>1.6046666666666667</v>
       </c>
@@ -5494,35 +5643,35 @@
       <c r="A12" s="23">
         <v>45931</v>
       </c>
-      <c r="B12" s="56" t="s">
+      <c r="B12" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="56"/>
+      <c r="C12" s="87"/>
       <c r="D12" s="25">
         <v>3.5</v>
       </c>
-      <c r="E12" s="74">
+      <c r="E12" s="37">
         <f t="shared" si="1"/>
         <v>20000</v>
       </c>
       <c r="F12" s="7">
         <v>25.02</v>
       </c>
-      <c r="G12" s="74">
+      <c r="G12" s="37">
         <v>175</v>
       </c>
-      <c r="H12" s="74">
+      <c r="H12" s="37">
         <f t="shared" si="2"/>
         <v>142971.42857142858</v>
       </c>
-      <c r="I12" s="74">
+      <c r="I12" s="37">
         <f>F12/D12</f>
         <v>7.1485714285714286</v>
       </c>
-      <c r="J12" s="76">
+      <c r="J12" s="38">
         <v>2</v>
       </c>
-      <c r="K12" s="76">
+      <c r="K12" s="38">
         <f t="shared" si="0"/>
         <v>3.5742857142857143</v>
       </c>
@@ -5538,36 +5687,36 @@
       <c r="A13" s="23">
         <v>45933</v>
       </c>
-      <c r="B13" s="56" t="s">
+      <c r="B13" s="87" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="56"/>
+      <c r="C13" s="87"/>
       <c r="D13" s="25">
         <v>3.75</v>
       </c>
-      <c r="E13" s="74">
+      <c r="E13" s="37">
         <f t="shared" si="1"/>
         <v>15000</v>
       </c>
       <c r="F13" s="6">
         <v>37.340000000000003</v>
       </c>
-      <c r="G13" s="74">
+      <c r="G13" s="37">
         <f>75+175</f>
         <v>250</v>
       </c>
-      <c r="H13" s="74">
+      <c r="H13" s="37">
         <f t="shared" si="2"/>
         <v>149360</v>
       </c>
-      <c r="I13" s="74">
+      <c r="I13" s="37">
         <f t="shared" si="5"/>
         <v>9.9573333333333345</v>
       </c>
-      <c r="J13" s="76">
+      <c r="J13" s="38">
         <v>3</v>
       </c>
-      <c r="K13" s="76">
+      <c r="K13" s="38">
         <f t="shared" si="0"/>
         <v>3.3191111111111113</v>
       </c>
@@ -5580,10 +5729,10 @@
       </c>
     </row>
     <row r="14" spans="1:13" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="55">
+      <c r="A14" s="93">
         <v>45936</v>
       </c>
-      <c r="B14" s="56" t="s">
+      <c r="B14" s="87" t="s">
         <v>19</v>
       </c>
       <c r="C14" s="24" t="s">
@@ -5592,28 +5741,28 @@
       <c r="D14" s="25">
         <v>8.75</v>
       </c>
-      <c r="E14" s="74">
+      <c r="E14" s="37">
         <f t="shared" si="1"/>
         <v>50000</v>
       </c>
       <c r="F14" s="7">
         <v>37.200000000000003</v>
       </c>
-      <c r="G14" s="74">
+      <c r="G14" s="37">
         <v>175</v>
       </c>
-      <c r="H14" s="74">
+      <c r="H14" s="37">
         <f t="shared" si="2"/>
         <v>212571.42857142858</v>
       </c>
-      <c r="I14" s="74">
+      <c r="I14" s="37">
         <f t="shared" si="5"/>
         <v>4.2514285714285718</v>
       </c>
-      <c r="J14" s="76">
+      <c r="J14" s="38">
         <v>3</v>
       </c>
-      <c r="K14" s="76">
+      <c r="K14" s="38">
         <f t="shared" si="0"/>
         <v>1.4171428571428573</v>
       </c>
@@ -5626,36 +5775,36 @@
       </c>
     </row>
     <row r="15" spans="1:13" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="55"/>
-      <c r="B15" s="56"/>
+      <c r="A15" s="93"/>
+      <c r="B15" s="87"/>
       <c r="C15" s="24" t="s">
         <v>38</v>
       </c>
       <c r="D15" s="25">
         <v>8.75</v>
       </c>
-      <c r="E15" s="74">
+      <c r="E15" s="37">
         <f t="shared" si="1"/>
         <v>50000</v>
       </c>
       <c r="F15" s="7">
         <v>29.9</v>
       </c>
-      <c r="G15" s="74">
+      <c r="G15" s="37">
         <v>175</v>
       </c>
-      <c r="H15" s="74">
+      <c r="H15" s="37">
         <f t="shared" si="2"/>
         <v>170857.14285714287</v>
       </c>
-      <c r="I15" s="74">
+      <c r="I15" s="37">
         <f t="shared" si="5"/>
         <v>3.4171428571428568</v>
       </c>
-      <c r="J15" s="76">
+      <c r="J15" s="38">
         <v>3</v>
       </c>
-      <c r="K15" s="76">
+      <c r="K15" s="38">
         <f t="shared" si="0"/>
         <v>1.1390476190476189</v>
       </c>
@@ -5668,36 +5817,36 @@
       </c>
     </row>
     <row r="16" spans="1:13" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="55"/>
-      <c r="B16" s="56"/>
+      <c r="A16" s="93"/>
+      <c r="B16" s="87"/>
       <c r="C16" s="25" t="s">
         <v>40</v>
       </c>
       <c r="D16" s="25">
         <v>8.75</v>
       </c>
-      <c r="E16" s="74">
+      <c r="E16" s="37">
         <f t="shared" si="1"/>
         <v>50000</v>
       </c>
       <c r="F16" s="7">
         <v>35.5</v>
       </c>
-      <c r="G16" s="74">
+      <c r="G16" s="37">
         <v>175</v>
       </c>
-      <c r="H16" s="74">
+      <c r="H16" s="37">
         <f t="shared" si="2"/>
         <v>202857.14285714287</v>
       </c>
-      <c r="I16" s="74">
+      <c r="I16" s="37">
         <f t="shared" si="5"/>
         <v>4.0571428571428569</v>
       </c>
-      <c r="J16" s="76">
+      <c r="J16" s="38">
         <v>3</v>
       </c>
-      <c r="K16" s="76">
+      <c r="K16" s="38">
         <f t="shared" si="0"/>
         <v>1.3523809523809522</v>
       </c>
@@ -5710,92 +5859,92 @@
       </c>
     </row>
     <row r="17" spans="1:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="63">
+      <c r="A17" s="83">
         <v>45939</v>
       </c>
-      <c r="B17" s="64" t="s">
+      <c r="B17" s="84" t="s">
         <v>23</v>
       </c>
       <c r="C17" s="24" t="s">
         <v>39</v>
       </c>
       <c r="D17" s="26"/>
-      <c r="E17" s="74">
+      <c r="E17" s="37">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F17" s="74"/>
-      <c r="G17" s="74">
+      <c r="F17" s="37"/>
+      <c r="G17" s="37">
         <v>175</v>
       </c>
-      <c r="H17" s="74">
+      <c r="H17" s="37">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I17" s="74" t="e">
+      <c r="I17" s="37" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J17" s="76"/>
-      <c r="K17" s="76" t="e">
+      <c r="J17" s="38"/>
+      <c r="K17" s="38" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A18" s="63"/>
-      <c r="B18" s="64"/>
+      <c r="A18" s="83"/>
+      <c r="B18" s="84"/>
       <c r="C18" s="24" t="s">
         <v>38</v>
       </c>
       <c r="D18" s="26"/>
-      <c r="E18" s="74">
+      <c r="E18" s="37">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F18" s="74"/>
-      <c r="G18" s="74">
+      <c r="F18" s="37"/>
+      <c r="G18" s="37">
         <v>175</v>
       </c>
-      <c r="H18" s="74">
+      <c r="H18" s="37">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I18" s="74" t="e">
+      <c r="I18" s="37" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J18" s="76"/>
-      <c r="K18" s="76" t="e">
+      <c r="J18" s="38"/>
+      <c r="K18" s="38" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="63"/>
-      <c r="B19" s="64"/>
+      <c r="A19" s="83"/>
+      <c r="B19" s="84"/>
       <c r="C19" s="25" t="s">
         <v>40</v>
       </c>
       <c r="D19" s="26"/>
-      <c r="E19" s="74">
+      <c r="E19" s="37">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F19" s="74"/>
-      <c r="G19" s="74">
+      <c r="F19" s="37"/>
+      <c r="G19" s="37">
         <v>175</v>
       </c>
-      <c r="H19" s="74">
+      <c r="H19" s="37">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I19" s="74" t="e">
+      <c r="I19" s="37" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J19" s="76"/>
-      <c r="K19" s="76" t="e">
+      <c r="J19" s="38"/>
+      <c r="K19" s="38" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
@@ -5804,35 +5953,35 @@
       <c r="A20" s="27">
         <v>45936</v>
       </c>
-      <c r="B20" s="57" t="s">
+      <c r="B20" s="94" t="s">
         <v>7</v>
       </c>
-      <c r="C20" s="57"/>
+      <c r="C20" s="94"/>
       <c r="D20" s="10">
         <v>2.36</v>
       </c>
-      <c r="E20" s="71">
+      <c r="E20" s="34">
         <f t="shared" si="1"/>
         <v>31466.666666666668</v>
       </c>
       <c r="F20" s="10">
         <v>7.8650000000000002</v>
       </c>
-      <c r="G20" s="71">
+      <c r="G20" s="34">
         <v>75</v>
       </c>
-      <c r="H20" s="71">
+      <c r="H20" s="34">
         <f t="shared" si="2"/>
         <v>104866.66666666667</v>
       </c>
-      <c r="I20" s="71">
+      <c r="I20" s="34">
         <f t="shared" si="5"/>
         <v>3.3326271186440679</v>
       </c>
-      <c r="J20" s="72">
+      <c r="J20" s="35">
         <v>2</v>
       </c>
-      <c r="K20" s="72">
+      <c r="K20" s="35">
         <f t="shared" si="0"/>
         <v>1.666313559322034</v>
       </c>
@@ -5848,35 +5997,35 @@
       <c r="A21" s="27">
         <v>45938</v>
       </c>
-      <c r="B21" s="57" t="s">
+      <c r="B21" s="94" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="57"/>
-      <c r="D21" s="73">
+      <c r="C21" s="94"/>
+      <c r="D21" s="36">
         <v>3.5</v>
       </c>
-      <c r="E21" s="71">
+      <c r="E21" s="34">
         <f t="shared" si="1"/>
         <v>20000</v>
       </c>
       <c r="F21" s="10">
         <v>22.486999999999998</v>
       </c>
-      <c r="G21" s="71">
+      <c r="G21" s="34">
         <v>175</v>
       </c>
-      <c r="H21" s="71">
+      <c r="H21" s="34">
         <f t="shared" si="2"/>
         <v>128497.14285714286</v>
       </c>
-      <c r="I21" s="71">
+      <c r="I21" s="34">
         <f t="shared" si="5"/>
         <v>6.4248571428571424</v>
       </c>
-      <c r="J21" s="72">
+      <c r="J21" s="35">
         <v>2</v>
       </c>
-      <c r="K21" s="72">
+      <c r="K21" s="35">
         <f t="shared" si="0"/>
         <v>3.2124285714285712</v>
       </c>
@@ -5892,30 +6041,30 @@
       <c r="A22" s="27">
         <v>45940</v>
       </c>
-      <c r="B22" s="57" t="s">
+      <c r="B22" s="94" t="s">
         <v>15</v>
       </c>
-      <c r="C22" s="57"/>
-      <c r="D22" s="73"/>
-      <c r="E22" s="71">
+      <c r="C22" s="94"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="34">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F22" s="71"/>
-      <c r="G22" s="71">
+      <c r="F22" s="34"/>
+      <c r="G22" s="34">
         <f>75+175</f>
         <v>250</v>
       </c>
-      <c r="H22" s="71">
+      <c r="H22" s="34">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I22" s="71" t="e">
+      <c r="I22" s="34" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J22" s="72"/>
-      <c r="K22" s="72" t="e">
+      <c r="J22" s="35"/>
+      <c r="K22" s="35" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
@@ -5924,35 +6073,35 @@
       <c r="A23" s="28">
         <v>45957</v>
       </c>
-      <c r="B23" s="53" t="s">
+      <c r="B23" s="91" t="s">
         <v>7</v>
       </c>
-      <c r="C23" s="53"/>
+      <c r="C23" s="91"/>
       <c r="D23" s="13">
         <v>1.6519999999999999</v>
       </c>
-      <c r="E23" s="68">
+      <c r="E23" s="32">
         <f t="shared" si="1"/>
         <v>22026.666666666668</v>
       </c>
       <c r="F23" s="13">
         <v>5.165</v>
       </c>
-      <c r="G23" s="68">
+      <c r="G23" s="32">
         <v>75</v>
       </c>
-      <c r="H23" s="68">
+      <c r="H23" s="32">
         <f t="shared" si="2"/>
         <v>68866.666666666672</v>
       </c>
-      <c r="I23" s="68">
+      <c r="I23" s="32">
         <f t="shared" si="5"/>
         <v>3.1265133171912836</v>
       </c>
-      <c r="J23" s="69">
+      <c r="J23" s="33">
         <v>2</v>
       </c>
-      <c r="K23" s="70">
+      <c r="K23" s="33">
         <f t="shared" si="0"/>
         <v>1.5632566585956418</v>
       </c>
@@ -5968,35 +6117,35 @@
       <c r="A24" s="28">
         <v>45959</v>
       </c>
-      <c r="B24" s="53" t="s">
+      <c r="B24" s="91" t="s">
         <v>12</v>
       </c>
-      <c r="C24" s="53"/>
+      <c r="C24" s="91"/>
       <c r="D24" s="13">
         <v>3.5</v>
       </c>
-      <c r="E24" s="68">
+      <c r="E24" s="32">
         <f t="shared" si="1"/>
         <v>20000</v>
       </c>
       <c r="F24" s="13">
         <v>21.8</v>
       </c>
-      <c r="G24" s="68">
+      <c r="G24" s="32">
         <v>175</v>
       </c>
-      <c r="H24" s="68">
+      <c r="H24" s="32">
         <f t="shared" si="2"/>
         <v>124571.42857142857</v>
       </c>
-      <c r="I24" s="68">
+      <c r="I24" s="32">
         <f t="shared" si="5"/>
         <v>6.2285714285714286</v>
       </c>
-      <c r="J24" s="70">
+      <c r="J24" s="33">
         <v>2</v>
       </c>
-      <c r="K24" s="70">
+      <c r="K24" s="33">
         <f t="shared" si="0"/>
         <v>3.1142857142857143</v>
       </c>
@@ -6012,36 +6161,36 @@
       <c r="A25" s="28">
         <v>45961</v>
       </c>
-      <c r="B25" s="53" t="s">
+      <c r="B25" s="91" t="s">
         <v>15</v>
       </c>
-      <c r="C25" s="53"/>
+      <c r="C25" s="91"/>
       <c r="D25" s="30">
         <v>3.75</v>
       </c>
-      <c r="E25" s="68">
+      <c r="E25" s="32">
         <f t="shared" si="1"/>
         <v>15000</v>
       </c>
       <c r="F25" s="13">
         <v>59.28</v>
       </c>
-      <c r="G25" s="68">
+      <c r="G25" s="32">
         <f>75+175</f>
         <v>250</v>
       </c>
-      <c r="H25" s="68">
+      <c r="H25" s="32">
         <f t="shared" si="2"/>
         <v>237120</v>
       </c>
-      <c r="I25" s="68">
+      <c r="I25" s="32">
         <f t="shared" si="5"/>
         <v>15.808</v>
       </c>
-      <c r="J25" s="70">
+      <c r="J25" s="33">
         <v>3</v>
       </c>
-      <c r="K25" s="70">
+      <c r="K25" s="33">
         <f t="shared" si="0"/>
         <v>5.269333333333333</v>
       </c>
@@ -6054,10 +6203,10 @@
       </c>
     </row>
     <row r="26" spans="1:13" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="54">
+      <c r="A26" s="92">
         <v>45964</v>
       </c>
-      <c r="B26" s="53" t="s">
+      <c r="B26" s="91" t="s">
         <v>19</v>
       </c>
       <c r="C26" s="29" t="s">
@@ -6066,28 +6215,28 @@
       <c r="D26" s="30">
         <v>8.75</v>
       </c>
-      <c r="E26" s="68">
+      <c r="E26" s="32">
         <f t="shared" si="1"/>
         <v>50000</v>
       </c>
       <c r="F26" s="13">
         <v>23.465</v>
       </c>
-      <c r="G26" s="68">
+      <c r="G26" s="32">
         <v>175</v>
       </c>
-      <c r="H26" s="68">
+      <c r="H26" s="32">
         <f t="shared" si="2"/>
         <v>134085.71428571429</v>
       </c>
-      <c r="I26" s="68">
+      <c r="I26" s="32">
         <f t="shared" si="5"/>
         <v>2.6817142857142855</v>
       </c>
-      <c r="J26" s="70">
+      <c r="J26" s="33">
         <v>3</v>
       </c>
-      <c r="K26" s="70">
+      <c r="K26" s="33">
         <f t="shared" si="0"/>
         <v>0.89390476190476187</v>
       </c>
@@ -6100,36 +6249,36 @@
       </c>
     </row>
     <row r="27" spans="1:13" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="54"/>
-      <c r="B27" s="53"/>
+      <c r="A27" s="92"/>
+      <c r="B27" s="91"/>
       <c r="C27" s="29" t="s">
         <v>38</v>
       </c>
       <c r="D27" s="30">
         <v>8.75</v>
       </c>
-      <c r="E27" s="68">
+      <c r="E27" s="32">
         <f t="shared" si="1"/>
         <v>50000</v>
       </c>
       <c r="F27" s="13">
         <v>22.2</v>
       </c>
-      <c r="G27" s="68">
+      <c r="G27" s="32">
         <v>175</v>
       </c>
-      <c r="H27" s="68">
+      <c r="H27" s="32">
         <f t="shared" si="2"/>
         <v>126857.14285714286</v>
       </c>
-      <c r="I27" s="68">
+      <c r="I27" s="32">
         <f t="shared" si="5"/>
         <v>2.5371428571428569</v>
       </c>
-      <c r="J27" s="70">
+      <c r="J27" s="33">
         <v>3</v>
       </c>
-      <c r="K27" s="70">
+      <c r="K27" s="33">
         <f t="shared" si="0"/>
         <v>0.84571428571428564</v>
       </c>
@@ -6142,36 +6291,36 @@
       </c>
     </row>
     <row r="28" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="54"/>
-      <c r="B28" s="53"/>
+      <c r="A28" s="92"/>
+      <c r="B28" s="91"/>
       <c r="C28" s="30" t="s">
         <v>40</v>
       </c>
       <c r="D28" s="30">
         <v>8.75</v>
       </c>
-      <c r="E28" s="68">
+      <c r="E28" s="32">
         <f t="shared" si="1"/>
         <v>50000</v>
       </c>
       <c r="F28" s="13">
         <v>22.67</v>
       </c>
-      <c r="G28" s="68">
+      <c r="G28" s="32">
         <v>175</v>
       </c>
-      <c r="H28" s="68">
+      <c r="H28" s="32">
         <f t="shared" si="2"/>
         <v>129542.85714285714</v>
       </c>
-      <c r="I28" s="68">
+      <c r="I28" s="32">
         <f t="shared" si="5"/>
         <v>2.5908571428571432</v>
       </c>
-      <c r="J28" s="70">
+      <c r="J28" s="33">
         <v>3</v>
       </c>
-      <c r="K28" s="70">
+      <c r="K28" s="33">
         <f t="shared" si="0"/>
         <v>0.86361904761904773</v>
       </c>
@@ -6184,92 +6333,92 @@
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A29" s="65">
+      <c r="A29" s="85">
         <v>45967</v>
       </c>
-      <c r="B29" s="66" t="s">
+      <c r="B29" s="86" t="s">
         <v>23</v>
       </c>
       <c r="C29" s="29" t="s">
         <v>39</v>
       </c>
       <c r="D29" s="31"/>
-      <c r="E29" s="68">
+      <c r="E29" s="32">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F29" s="68"/>
-      <c r="G29" s="68">
+      <c r="F29" s="32"/>
+      <c r="G29" s="32">
         <v>175</v>
       </c>
-      <c r="H29" s="68">
+      <c r="H29" s="32">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I29" s="68" t="e">
+      <c r="I29" s="32" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J29" s="70"/>
-      <c r="K29" s="70" t="e">
+      <c r="J29" s="33"/>
+      <c r="K29" s="33" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A30" s="65"/>
-      <c r="B30" s="66"/>
+      <c r="A30" s="85"/>
+      <c r="B30" s="86"/>
       <c r="C30" s="29" t="s">
         <v>38</v>
       </c>
       <c r="D30" s="31"/>
-      <c r="E30" s="68">
+      <c r="E30" s="32">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F30" s="68"/>
-      <c r="G30" s="68">
+      <c r="F30" s="32"/>
+      <c r="G30" s="32">
         <v>175</v>
       </c>
-      <c r="H30" s="68">
+      <c r="H30" s="32">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I30" s="68" t="e">
+      <c r="I30" s="32" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J30" s="70"/>
-      <c r="K30" s="70" t="e">
+      <c r="J30" s="33"/>
+      <c r="K30" s="33" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A31" s="65"/>
-      <c r="B31" s="66"/>
+      <c r="A31" s="85"/>
+      <c r="B31" s="86"/>
       <c r="C31" s="30" t="s">
         <v>40</v>
       </c>
       <c r="D31" s="31"/>
-      <c r="E31" s="68">
+      <c r="E31" s="32">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F31" s="68"/>
-      <c r="G31" s="68">
+      <c r="F31" s="32"/>
+      <c r="G31" s="32">
         <v>175</v>
       </c>
-      <c r="H31" s="68">
+      <c r="H31" s="32">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I31" s="68" t="e">
+      <c r="I31" s="32" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J31" s="70"/>
-      <c r="K31" s="70" t="e">
+      <c r="J31" s="33"/>
+      <c r="K31" s="33" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
@@ -6279,6 +6428,15 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
     <mergeCell ref="A8:A10"/>
     <mergeCell ref="B8:B10"/>
     <mergeCell ref="A17:A19"/>
@@ -6288,12 +6446,6 @@
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="B13:C13"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
     <mergeCell ref="B24:C24"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="A26:A28"/>
@@ -6301,9 +6453,6 @@
     <mergeCell ref="A14:A16"/>
     <mergeCell ref="B14:B16"/>
     <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6311,24 +6460,24 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96F05777-029D-4AB8-BF1D-A351ADE945A2}">
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView topLeftCell="H8" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="AC9" sqref="AC9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="15.90625" style="14" customWidth="1"/>
-    <col min="2" max="2" width="16.08984375" customWidth="1"/>
+    <col min="2" max="2" width="16.08984375" style="113" customWidth="1"/>
     <col min="3" max="3" width="14.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" ht="74" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="113" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="14" t="s">
@@ -6341,311 +6490,296 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="42" x14ac:dyDescent="0.35">
-      <c r="A2" s="95" t="s">
+    <row r="2" spans="1:5" ht="101" x14ac:dyDescent="0.35">
+      <c r="A2" s="98" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="91">
+      <c r="B2" s="114">
         <v>45922</v>
       </c>
-      <c r="C2" s="79">
+      <c r="C2" s="129">
         <v>1.4965034965034965</v>
       </c>
-      <c r="D2" s="106">
+      <c r="D2" s="97">
         <f>(C2+C3+C4+C5)/4</f>
         <v>1.5826850952719598</v>
       </c>
-      <c r="E2" s="67">
+      <c r="E2" s="95">
         <f>SQRT((C2-D2)^2+(C3-D2)^2+(C4-D2)^2+(C5-D2)^2)/4</f>
         <v>3.0904734263468077E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="42" x14ac:dyDescent="0.35">
-      <c r="A3" s="96"/>
-      <c r="B3" s="92">
+    <row r="3" spans="1:5" ht="101" x14ac:dyDescent="0.35">
+      <c r="A3" s="99"/>
+      <c r="B3" s="115">
         <v>45929</v>
       </c>
-      <c r="C3" s="76">
+      <c r="C3" s="130">
         <v>1.6046666666666667</v>
       </c>
-      <c r="D3" s="107"/>
-      <c r="E3" s="67"/>
-    </row>
-    <row r="4" spans="1:5" ht="32" x14ac:dyDescent="0.35">
-      <c r="A4" s="96"/>
-      <c r="B4" s="93">
+      <c r="D3" s="95"/>
+      <c r="E3" s="95"/>
+    </row>
+    <row r="4" spans="1:5" ht="76" x14ac:dyDescent="0.35">
+      <c r="A4" s="99"/>
+      <c r="B4" s="116">
         <v>45936</v>
       </c>
-      <c r="C4" s="72">
+      <c r="C4" s="131">
         <v>1.666313559322034</v>
       </c>
-      <c r="D4" s="107"/>
-      <c r="E4" s="67"/>
-    </row>
-    <row r="5" spans="1:5" ht="32.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="97"/>
-      <c r="B5" s="94">
+      <c r="D4" s="95"/>
+      <c r="E4" s="95"/>
+    </row>
+    <row r="5" spans="1:5" ht="76.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="100"/>
+      <c r="B5" s="117">
         <v>45957</v>
       </c>
-      <c r="C5" s="70">
+      <c r="C5" s="132">
         <v>1.5632566585956418</v>
       </c>
-      <c r="D5" s="107"/>
-      <c r="E5" s="67"/>
+      <c r="D5" s="95"/>
+      <c r="E5" s="95"/>
     </row>
     <row r="6" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="81" t="s">
+      <c r="A6" s="101" t="s">
         <v>43</v>
       </c>
-      <c r="B6" s="84">
+      <c r="B6" s="118">
         <v>45924</v>
       </c>
-      <c r="C6" s="79">
+      <c r="C6" s="129">
         <v>2.9537142857142857</v>
       </c>
-      <c r="D6" s="106">
+      <c r="D6" s="97">
         <f t="shared" ref="D6" si="0">(C6+C7+C8+C9)/4</f>
         <v>3.2136785714285714</v>
       </c>
-      <c r="E6" s="67">
+      <c r="E6" s="95">
         <f t="shared" ref="E6" si="1">SQRT((C6-D6)^2+(C7-D6)^2+(C8-D6)^2+(C9-D6)^2)/4</f>
         <v>0.11388026713327878</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="32" x14ac:dyDescent="0.35">
-      <c r="A7" s="81"/>
-      <c r="B7" s="85">
+    <row r="7" spans="1:5" ht="76" x14ac:dyDescent="0.35">
+      <c r="A7" s="101"/>
+      <c r="B7" s="119">
         <v>45931</v>
       </c>
-      <c r="C7" s="76">
+      <c r="C7" s="130">
         <v>3.5742857142857143</v>
       </c>
-      <c r="D7" s="107"/>
-      <c r="E7" s="67"/>
-    </row>
-    <row r="8" spans="1:5" ht="32" x14ac:dyDescent="0.35">
-      <c r="A8" s="81"/>
-      <c r="B8" s="86">
+      <c r="D7" s="95"/>
+      <c r="E7" s="95"/>
+    </row>
+    <row r="8" spans="1:5" ht="76" x14ac:dyDescent="0.35">
+      <c r="A8" s="101"/>
+      <c r="B8" s="120">
         <v>45938</v>
       </c>
-      <c r="C8" s="72">
+      <c r="C8" s="131">
         <v>3.2124285714285712</v>
       </c>
-      <c r="D8" s="107"/>
-      <c r="E8" s="67"/>
-    </row>
-    <row r="9" spans="1:5" ht="32" x14ac:dyDescent="0.35">
-      <c r="A9" s="81"/>
-      <c r="B9" s="87">
+      <c r="D8" s="95"/>
+      <c r="E8" s="95"/>
+    </row>
+    <row r="9" spans="1:5" ht="76" x14ac:dyDescent="0.35">
+      <c r="A9" s="101"/>
+      <c r="B9" s="121">
         <v>45959</v>
       </c>
-      <c r="C9" s="70">
+      <c r="C9" s="132">
         <v>3.1142857142857143</v>
       </c>
-      <c r="D9" s="107"/>
-      <c r="E9" s="67"/>
+      <c r="D9" s="95"/>
+      <c r="E9" s="95"/>
     </row>
     <row r="10" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="82" t="s">
+      <c r="A10" s="102" t="s">
         <v>44</v>
       </c>
-      <c r="B10" s="84">
+      <c r="B10" s="118">
         <v>45926</v>
       </c>
-      <c r="C10" s="79">
+      <c r="C10" s="129">
         <v>4.3519999999999994</v>
       </c>
-      <c r="D10" s="106">
+      <c r="D10" s="97">
         <f>(C10+C11+C12+C13)/3</f>
         <v>4.3134814814814808</v>
       </c>
-      <c r="E10" s="67">
+      <c r="E10" s="95">
         <f>SQRT((C10-D10)^2+(C11-D10)^2+(C13-D10)^2)/3</f>
         <v>0.45994068125115423</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="32" x14ac:dyDescent="0.35">
-      <c r="A11" s="82"/>
-      <c r="B11" s="85">
+    <row r="11" spans="1:5" ht="76" x14ac:dyDescent="0.35">
+      <c r="A11" s="102"/>
+      <c r="B11" s="119">
         <v>45933</v>
       </c>
-      <c r="C11" s="76">
+      <c r="C11" s="130">
         <v>3.3191111111111109</v>
       </c>
-      <c r="D11" s="107"/>
-      <c r="E11" s="67"/>
-    </row>
-    <row r="12" spans="1:5" ht="32" x14ac:dyDescent="0.35">
-      <c r="A12" s="82"/>
-      <c r="B12" s="86">
+      <c r="D11" s="95"/>
+      <c r="E11" s="95"/>
+    </row>
+    <row r="12" spans="1:5" ht="76" x14ac:dyDescent="0.35">
+      <c r="A12" s="102"/>
+      <c r="B12" s="120">
         <v>45940</v>
       </c>
-      <c r="C12" s="72">
+      <c r="C12" s="131">
         <v>0</v>
       </c>
-      <c r="D12" s="107"/>
-      <c r="E12" s="67"/>
-    </row>
-    <row r="13" spans="1:5" ht="32" x14ac:dyDescent="0.35">
-      <c r="A13" s="82"/>
-      <c r="B13" s="87">
+      <c r="D12" s="95"/>
+      <c r="E12" s="95"/>
+    </row>
+    <row r="13" spans="1:5" ht="76" x14ac:dyDescent="0.35">
+      <c r="A13" s="102"/>
+      <c r="B13" s="121">
         <v>45961</v>
       </c>
-      <c r="C13" s="70">
+      <c r="C13" s="132">
         <v>5.269333333333333</v>
       </c>
-      <c r="D13" s="107"/>
-      <c r="E13" s="67"/>
+      <c r="D13" s="95"/>
+      <c r="E13" s="95"/>
     </row>
     <row r="14" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="83" t="s">
+      <c r="A14" s="96" t="s">
         <v>46</v>
       </c>
-      <c r="B14" s="90" t="s">
+      <c r="B14" s="122" t="s">
         <v>50</v>
       </c>
-      <c r="C14" s="79">
+      <c r="C14" s="129">
         <v>1.4110476190476191</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="83"/>
-      <c r="B15" s="90" t="s">
+    <row r="15" spans="1:5" ht="38.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="96"/>
+      <c r="B15" s="122" t="s">
         <v>51</v>
       </c>
-      <c r="C15" s="79">
+      <c r="C15" s="129">
         <v>1.3135238095238095</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="83"/>
-      <c r="B16" s="90" t="s">
+    <row r="16" spans="1:5" ht="38.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="96"/>
+      <c r="B16" s="122" t="s">
         <v>52</v>
       </c>
-      <c r="C16" s="79">
+      <c r="C16" s="129">
         <v>1.1204190476190476</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="83"/>
-      <c r="B17" s="90" t="s">
+      <c r="A17" s="96"/>
+      <c r="B17" s="122" t="s">
         <v>47</v>
       </c>
-      <c r="C17" s="76">
+      <c r="C17" s="130">
         <v>1.4171428571428573</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="17" x14ac:dyDescent="0.35">
-      <c r="A18" s="83"/>
-      <c r="B18" s="90" t="s">
+    <row r="18" spans="1:3" ht="26" x14ac:dyDescent="0.35">
+      <c r="A18" s="96"/>
+      <c r="B18" s="122" t="s">
         <v>48</v>
       </c>
-      <c r="C18" s="76">
+      <c r="C18" s="130">
         <v>1.1390476190476191</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="17" x14ac:dyDescent="0.35">
-      <c r="A19" s="83"/>
-      <c r="B19" s="90" t="s">
+    <row r="19" spans="1:3" ht="26" x14ac:dyDescent="0.35">
+      <c r="A19" s="96"/>
+      <c r="B19" s="122" t="s">
         <v>49</v>
       </c>
-      <c r="C19" s="76">
+      <c r="C19" s="130">
         <v>1.3523809523809527</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="83"/>
-      <c r="B20" s="90" t="s">
+      <c r="A20" s="96"/>
+      <c r="B20" s="122" t="s">
         <v>53</v>
       </c>
-      <c r="C20" s="72">
+      <c r="C20" s="131">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="17" x14ac:dyDescent="0.35">
-      <c r="A21" s="83"/>
-      <c r="B21" s="90" t="s">
+    <row r="21" spans="1:3" ht="26" x14ac:dyDescent="0.35">
+      <c r="A21" s="96"/>
+      <c r="B21" s="122" t="s">
         <v>54</v>
       </c>
-      <c r="C21" s="72">
+      <c r="C21" s="131">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="17" x14ac:dyDescent="0.35">
-      <c r="A22" s="83"/>
-      <c r="B22" s="90" t="s">
+    <row r="22" spans="1:3" ht="26" x14ac:dyDescent="0.35">
+      <c r="A22" s="96"/>
+      <c r="B22" s="122" t="s">
         <v>55</v>
       </c>
-      <c r="C22" s="72">
+      <c r="C22" s="131">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="83"/>
-      <c r="B23" s="90" t="s">
+      <c r="A23" s="96"/>
+      <c r="B23" s="122" t="s">
         <v>53</v>
       </c>
-      <c r="C23" s="70">
+      <c r="C23" s="132">
         <v>0.89390476190476198</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="17" x14ac:dyDescent="0.35">
-      <c r="A24" s="83"/>
-      <c r="B24" s="90" t="s">
+    <row r="24" spans="1:3" ht="26" x14ac:dyDescent="0.35">
+      <c r="A24" s="96"/>
+      <c r="B24" s="122" t="s">
         <v>54</v>
       </c>
-      <c r="C24" s="70">
+      <c r="C24" s="132">
         <v>0.84571428571428564</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="17" x14ac:dyDescent="0.35">
-      <c r="A25" s="83"/>
-      <c r="B25" s="98" t="s">
+    <row r="25" spans="1:3" ht="26" x14ac:dyDescent="0.35">
+      <c r="A25" s="96"/>
+      <c r="B25" s="123" t="s">
         <v>55</v>
       </c>
-      <c r="C25" s="70">
+      <c r="C25" s="132">
         <v>0.86361904761904762</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A26" s="99"/>
-      <c r="B26" s="88"/>
-      <c r="C26" s="100"/>
+      <c r="B26" s="124"/>
+      <c r="C26" s="133"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A27" s="99"/>
-      <c r="B27" s="88"/>
-      <c r="C27" s="100"/>
+      <c r="B27" s="124"/>
+      <c r="C27" s="133"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A28" s="101"/>
-      <c r="B28" s="102"/>
-      <c r="C28" s="103"/>
+      <c r="A28" s="54"/>
+      <c r="B28" s="125"/>
+      <c r="C28" s="134"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A29" s="99"/>
-      <c r="B29" s="104"/>
-      <c r="C29" s="100"/>
+      <c r="B29" s="126"/>
+      <c r="C29" s="133"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A30" s="99"/>
-      <c r="B30" s="89"/>
-      <c r="C30" s="100"/>
+      <c r="B30" s="127"/>
+      <c r="C30" s="133"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A31" s="99"/>
-      <c r="B31" s="105"/>
-      <c r="C31" s="100"/>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A32" s="99"/>
-      <c r="B32" s="100"/>
-      <c r="C32" s="100"/>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A33" s="99"/>
-      <c r="B33" s="100"/>
-      <c r="C33" s="100"/>
+      <c r="B31" s="128"/>
+      <c r="C31" s="133"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -6666,6 +6800,24 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F745D3CB-4660-42DB-933B-4E766280F7B6}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{312E6C8F-FBF0-4E0D-89B3-4AF9CF2F6CD7}">
   <dimension ref="A1:C1003"/>
   <sheetViews>
@@ -6731,10 +6883,10 @@
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="38">
+      <c r="A6" s="66">
         <v>45932</v>
       </c>
-      <c r="B6" s="41" t="s">
+      <c r="B6" s="69" t="s">
         <v>23</v>
       </c>
       <c r="C6" s="4">
@@ -6742,15 +6894,15 @@
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="39"/>
-      <c r="B7" s="42"/>
+      <c r="A7" s="67"/>
+      <c r="B7" s="70"/>
       <c r="C7" s="4">
         <v>92.4</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="40"/>
-      <c r="B8" s="43"/>
+      <c r="A8" s="68"/>
+      <c r="B8" s="71"/>
       <c r="C8" s="4">
         <v>94.6</v>
       </c>
@@ -6800,10 +6952,10 @@
       </c>
     </row>
     <row r="13" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="47">
+      <c r="A13" s="75">
         <v>45939</v>
       </c>
-      <c r="B13" s="50" t="s">
+      <c r="B13" s="78" t="s">
         <v>23</v>
       </c>
       <c r="C13" s="7">
@@ -6811,15 +6963,15 @@
       </c>
     </row>
     <row r="14" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="48"/>
-      <c r="B14" s="51"/>
+      <c r="A14" s="76"/>
+      <c r="B14" s="79"/>
       <c r="C14" s="7">
         <v>96.3</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="49"/>
-      <c r="B15" s="52"/>
+      <c r="A15" s="77"/>
+      <c r="B15" s="80"/>
       <c r="C15" s="7">
         <v>88.2</v>
       </c>
@@ -6902,10 +7054,10 @@
       </c>
     </row>
     <row r="23" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="32">
+      <c r="A23" s="60">
         <v>45967</v>
       </c>
-      <c r="B23" s="35" t="s">
+      <c r="B23" s="63" t="s">
         <v>23</v>
       </c>
       <c r="C23" s="13">
@@ -6913,15 +7065,15 @@
       </c>
     </row>
     <row r="24" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="33"/>
-      <c r="B24" s="36"/>
+      <c r="A24" s="61"/>
+      <c r="B24" s="64"/>
       <c r="C24" s="13">
         <v>95.4</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="34"/>
-      <c r="B25" s="37"/>
+      <c r="A25" s="62"/>
+      <c r="B25" s="65"/>
       <c r="C25" s="13">
         <v>94.18</v>
       </c>
@@ -11829,9 +11981,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A68D5E1D-7385-4B00-B98E-6993FCCB1E01}">
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView topLeftCell="G3" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
@@ -11862,310 +12014,290 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="95" t="s">
+      <c r="A2" s="98" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="91" t="s">
+      <c r="B2" s="49" t="s">
         <v>63</v>
       </c>
-      <c r="C2" s="79">
+      <c r="C2" s="40">
         <v>1.4965034965034965</v>
       </c>
-      <c r="D2" s="106">
+      <c r="D2" s="97">
         <f>(C2+C3+C4+C5)/4</f>
         <v>1.5826850952719598</v>
       </c>
-      <c r="E2" s="67">
+      <c r="E2" s="95">
         <f>SQRT((C2-D2)^2+(C3-D2)^2+(C4-D2)^2+(C5-D2)^2)/4</f>
         <v>3.0904734263468077E-2</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="42" x14ac:dyDescent="0.35">
-      <c r="A3" s="96"/>
-      <c r="B3" s="92">
+      <c r="A3" s="99"/>
+      <c r="B3" s="50">
         <v>45929</v>
       </c>
-      <c r="C3" s="76">
+      <c r="C3" s="38">
         <v>1.6046666666666667</v>
       </c>
-      <c r="D3" s="107"/>
-      <c r="E3" s="67"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="95"/>
     </row>
     <row r="4" spans="1:5" ht="32" x14ac:dyDescent="0.35">
-      <c r="A4" s="96"/>
-      <c r="B4" s="93">
+      <c r="A4" s="99"/>
+      <c r="B4" s="51">
         <v>45936</v>
       </c>
-      <c r="C4" s="72">
+      <c r="C4" s="35">
         <v>1.666313559322034</v>
       </c>
-      <c r="D4" s="107"/>
-      <c r="E4" s="67"/>
+      <c r="D4" s="95"/>
+      <c r="E4" s="95"/>
     </row>
     <row r="5" spans="1:5" ht="32.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="97"/>
-      <c r="B5" s="94">
+      <c r="A5" s="100"/>
+      <c r="B5" s="52">
         <v>45957</v>
       </c>
-      <c r="C5" s="70">
+      <c r="C5" s="33">
         <v>1.5632566585956418</v>
       </c>
-      <c r="D5" s="107"/>
-      <c r="E5" s="67"/>
+      <c r="D5" s="95"/>
+      <c r="E5" s="95"/>
     </row>
     <row r="6" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="81" t="s">
+      <c r="A6" s="101" t="s">
         <v>43</v>
       </c>
-      <c r="B6" s="84" t="s">
+      <c r="B6" s="42" t="s">
         <v>63</v>
       </c>
-      <c r="C6" s="79">
+      <c r="C6" s="40">
         <v>2.9537142857142857</v>
       </c>
-      <c r="D6" s="106">
+      <c r="D6" s="97">
         <f t="shared" ref="D6" si="0">(C6+C7+C8+C9)/4</f>
         <v>3.2136785714285714</v>
       </c>
-      <c r="E6" s="67">
+      <c r="E6" s="95">
         <f t="shared" ref="E6" si="1">SQRT((C6-D6)^2+(C7-D6)^2+(C8-D6)^2+(C9-D6)^2)/4</f>
         <v>0.11388026713327878</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="32" x14ac:dyDescent="0.35">
-      <c r="A7" s="81"/>
-      <c r="B7" s="85">
+      <c r="A7" s="101"/>
+      <c r="B7" s="43">
         <v>45931</v>
       </c>
-      <c r="C7" s="76">
+      <c r="C7" s="38">
         <v>3.5742857142857143</v>
       </c>
-      <c r="D7" s="107"/>
-      <c r="E7" s="67"/>
+      <c r="D7" s="95"/>
+      <c r="E7" s="95"/>
     </row>
     <row r="8" spans="1:5" ht="32" x14ac:dyDescent="0.35">
-      <c r="A8" s="81"/>
-      <c r="B8" s="86">
+      <c r="A8" s="101"/>
+      <c r="B8" s="44">
         <v>45938</v>
       </c>
-      <c r="C8" s="72">
+      <c r="C8" s="35">
         <v>3.2124285714285712</v>
       </c>
-      <c r="D8" s="107"/>
-      <c r="E8" s="67"/>
+      <c r="D8" s="95"/>
+      <c r="E8" s="95"/>
     </row>
     <row r="9" spans="1:5" ht="32" x14ac:dyDescent="0.35">
-      <c r="A9" s="81"/>
-      <c r="B9" s="87">
+      <c r="A9" s="101"/>
+      <c r="B9" s="45">
         <v>45959</v>
       </c>
-      <c r="C9" s="70">
+      <c r="C9" s="33">
         <v>3.1142857142857143</v>
       </c>
-      <c r="D9" s="107"/>
-      <c r="E9" s="67"/>
+      <c r="D9" s="95"/>
+      <c r="E9" s="95"/>
     </row>
     <row r="10" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="82" t="s">
+      <c r="A10" s="102" t="s">
         <v>44</v>
       </c>
-      <c r="B10" s="84" t="s">
+      <c r="B10" s="42" t="s">
         <v>63</v>
       </c>
-      <c r="C10" s="79">
+      <c r="C10" s="40">
         <v>4.3519999999999994</v>
       </c>
-      <c r="D10" s="106">
+      <c r="D10" s="97">
         <f>(C10+C11+C12+C13)/3</f>
         <v>4.3134814814814808</v>
       </c>
-      <c r="E10" s="67">
+      <c r="E10" s="95">
         <f>SQRT((C10-D10)^2+(C11-D10)^2+(C13-D10)^2)/3</f>
         <v>0.45994068125115423</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="32" x14ac:dyDescent="0.35">
-      <c r="A11" s="82"/>
-      <c r="B11" s="85">
+      <c r="A11" s="102"/>
+      <c r="B11" s="43">
         <v>45933</v>
       </c>
-      <c r="C11" s="76">
+      <c r="C11" s="38">
         <v>3.3191111111111109</v>
       </c>
-      <c r="D11" s="107"/>
-      <c r="E11" s="67"/>
+      <c r="D11" s="95"/>
+      <c r="E11" s="95"/>
     </row>
     <row r="12" spans="1:5" ht="32" x14ac:dyDescent="0.35">
-      <c r="A12" s="82"/>
-      <c r="B12" s="86">
+      <c r="A12" s="102"/>
+      <c r="B12" s="44">
         <v>45940</v>
       </c>
-      <c r="C12" s="72">
+      <c r="C12" s="35">
         <v>0</v>
       </c>
-      <c r="D12" s="107"/>
-      <c r="E12" s="67"/>
+      <c r="D12" s="95"/>
+      <c r="E12" s="95"/>
     </row>
     <row r="13" spans="1:5" ht="32" x14ac:dyDescent="0.35">
-      <c r="A13" s="82"/>
-      <c r="B13" s="87">
+      <c r="A13" s="102"/>
+      <c r="B13" s="45">
         <v>45961</v>
       </c>
-      <c r="C13" s="70">
+      <c r="C13" s="33">
         <v>5.269333333333333</v>
       </c>
-      <c r="D13" s="107"/>
-      <c r="E13" s="67"/>
+      <c r="D13" s="95"/>
+      <c r="E13" s="95"/>
     </row>
     <row r="14" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="83" t="s">
+      <c r="A14" s="96" t="s">
         <v>46</v>
       </c>
-      <c r="B14" s="90" t="s">
+      <c r="B14" s="48" t="s">
         <v>64</v>
       </c>
-      <c r="C14" s="79">
+      <c r="C14" s="40">
         <v>1.4110476190476191</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="83"/>
-      <c r="B15" s="90" t="s">
+      <c r="A15" s="96"/>
+      <c r="B15" s="48" t="s">
         <v>65</v>
       </c>
-      <c r="C15" s="79">
+      <c r="C15" s="40">
         <v>1.3135238095238095</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="83"/>
-      <c r="B16" s="90" t="s">
+      <c r="A16" s="96"/>
+      <c r="B16" s="48" t="s">
         <v>66</v>
       </c>
-      <c r="C16" s="79">
+      <c r="C16" s="40">
         <v>1.1204190476190476</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="83"/>
-      <c r="B17" s="90" t="s">
+      <c r="A17" s="96"/>
+      <c r="B17" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="C17" s="76">
+      <c r="C17" s="38">
         <v>1.4171428571428573</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="17" x14ac:dyDescent="0.35">
-      <c r="A18" s="83"/>
-      <c r="B18" s="90" t="s">
+      <c r="A18" s="96"/>
+      <c r="B18" s="48" t="s">
         <v>48</v>
       </c>
-      <c r="C18" s="76">
+      <c r="C18" s="38">
         <v>1.1390476190476191</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="17" x14ac:dyDescent="0.35">
-      <c r="A19" s="83"/>
-      <c r="B19" s="90" t="s">
+      <c r="A19" s="96"/>
+      <c r="B19" s="48" t="s">
         <v>49</v>
       </c>
-      <c r="C19" s="76">
+      <c r="C19" s="38">
         <v>1.3523809523809527</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="83"/>
-      <c r="B20" s="90" t="s">
+      <c r="A20" s="96"/>
+      <c r="B20" s="48" t="s">
         <v>53</v>
       </c>
-      <c r="C20" s="72">
+      <c r="C20" s="35">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="17" x14ac:dyDescent="0.35">
-      <c r="A21" s="83"/>
-      <c r="B21" s="90" t="s">
+      <c r="A21" s="96"/>
+      <c r="B21" s="48" t="s">
         <v>54</v>
       </c>
-      <c r="C21" s="72">
+      <c r="C21" s="35">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="17" x14ac:dyDescent="0.35">
-      <c r="A22" s="83"/>
-      <c r="B22" s="90" t="s">
+      <c r="A22" s="96"/>
+      <c r="B22" s="48" t="s">
         <v>55</v>
       </c>
-      <c r="C22" s="72">
+      <c r="C22" s="35">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="83"/>
-      <c r="B23" s="90" t="s">
+      <c r="A23" s="96"/>
+      <c r="B23" s="48" t="s">
         <v>53</v>
       </c>
-      <c r="C23" s="70">
+      <c r="C23" s="33">
         <v>0.89390476190476198</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="17" x14ac:dyDescent="0.35">
-      <c r="A24" s="83"/>
-      <c r="B24" s="90" t="s">
+      <c r="A24" s="96"/>
+      <c r="B24" s="48" t="s">
         <v>54</v>
       </c>
-      <c r="C24" s="70">
+      <c r="C24" s="33">
         <v>0.84571428571428564</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="17" x14ac:dyDescent="0.35">
-      <c r="A25" s="83"/>
-      <c r="B25" s="98" t="s">
+      <c r="A25" s="96"/>
+      <c r="B25" s="53" t="s">
         <v>55</v>
       </c>
-      <c r="C25" s="70">
+      <c r="C25" s="33">
         <v>0.86361904761904762</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A26" s="99"/>
-      <c r="B26" s="88"/>
-      <c r="C26" s="100"/>
+      <c r="B26" s="46"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A27" s="99"/>
-      <c r="B27" s="88"/>
-      <c r="C27" s="100"/>
+      <c r="B27" s="46"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A28" s="101"/>
-      <c r="B28" s="102"/>
-      <c r="C28" s="103"/>
+      <c r="A28" s="54"/>
+      <c r="B28" s="55"/>
+      <c r="C28" s="56"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A29" s="99"/>
-      <c r="B29" s="104"/>
-      <c r="C29" s="100"/>
+      <c r="B29" s="57"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A30" s="99"/>
-      <c r="B30" s="89"/>
-      <c r="C30" s="100"/>
+      <c r="B30" s="47"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A31" s="99"/>
-      <c r="B31" s="105"/>
-      <c r="C31" s="100"/>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A32" s="99"/>
-      <c r="B32" s="100"/>
-      <c r="C32" s="100"/>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A33" s="99"/>
-      <c r="B33" s="100"/>
-      <c r="C33" s="100"/>
+      <c r="B31" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -12185,24 +12317,25 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CCC8B0C-6991-447E-9B72-1BF417D29CF6}">
   <dimension ref="A1:O9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2:O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:15" s="14" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B1" s="14" t="s">
+      <c r="A1" s="104"/>
+      <c r="B1" s="105" t="s">
         <v>62</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="105" t="s">
         <v>69</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="106" t="s">
         <v>70</v>
       </c>
       <c r="E1" s="14" t="s">
@@ -12239,8 +12372,8 @@
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="108" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="108" t="s">
+    <row r="2" spans="1:15" s="59" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="107" t="s">
         <v>39</v>
       </c>
       <c r="B2" s="108">
@@ -12249,56 +12382,56 @@
       <c r="C2" s="108">
         <v>37.200000000000003</v>
       </c>
-      <c r="D2" s="108">
+      <c r="D2" s="109">
         <v>23.46</v>
       </c>
-      <c r="E2" s="109">
+      <c r="E2" s="103">
         <f>SUM(B2:D4)/9</f>
         <v>30.206666666666667</v>
       </c>
-      <c r="F2" s="109">
+      <c r="F2" s="103">
         <f>(B2-E2)^2+(B3-E2)^2+(B4-E2)^2+(C2-E2)^2+(C3-E2)^2+(C4-E2)^2+(D2-E2)^2+(D3-E2)^2+(D4-E2)^2</f>
         <v>309.03620000000001</v>
       </c>
-      <c r="G2" s="108">
+      <c r="G2" s="59">
         <f>(B2+C2+D2)/3</f>
         <v>32.56666666666667</v>
       </c>
-      <c r="H2" s="108">
+      <c r="H2" s="59">
         <f>((G2-E2)^2)*3</f>
         <v>16.708800000000039</v>
       </c>
-      <c r="I2" s="109">
+      <c r="I2" s="103">
         <f>H2+H3+H4</f>
         <v>25.229866666666727</v>
       </c>
-      <c r="J2" s="109">
+      <c r="J2" s="103">
         <f>I2/F2</f>
         <v>8.1640489582342546E-2</v>
       </c>
-      <c r="K2" s="109">
+      <c r="K2" s="103">
         <f>SUM(B7:D9)</f>
         <v>283.80633333333333</v>
       </c>
-      <c r="L2" s="109">
+      <c r="L2" s="103">
         <f>I2/2</f>
         <v>12.614933333333363</v>
       </c>
-      <c r="M2" s="109">
+      <c r="M2" s="103">
         <f>9-3</f>
         <v>6</v>
       </c>
-      <c r="N2" s="109">
+      <c r="N2" s="103">
         <f>K2/M2</f>
         <v>47.301055555555557</v>
       </c>
-      <c r="O2" s="109">
+      <c r="O2" s="103">
         <f>L2/N2</f>
         <v>0.26669454170038553</v>
       </c>
     </row>
-    <row r="3" spans="1:15" s="108" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="108" t="s">
+    <row r="3" spans="1:15" s="59" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="107" t="s">
         <v>38</v>
       </c>
       <c r="B3" s="108">
@@ -12307,65 +12440,65 @@
       <c r="C3" s="108">
         <v>29.9</v>
       </c>
-      <c r="D3" s="108">
+      <c r="D3" s="109">
         <v>22.2</v>
       </c>
-      <c r="E3" s="109"/>
-      <c r="F3" s="109"/>
-      <c r="G3" s="108">
+      <c r="E3" s="103"/>
+      <c r="F3" s="103"/>
+      <c r="G3" s="59">
         <f t="shared" ref="G3:G4" si="0">(B3+C3+D3)/3</f>
         <v>28.86</v>
       </c>
-      <c r="H3" s="108">
+      <c r="H3" s="59">
         <f>((G3-E2)^2)*3</f>
         <v>5.4405333333333408</v>
       </c>
-      <c r="I3" s="109"/>
-      <c r="J3" s="109"/>
-      <c r="K3" s="109"/>
-      <c r="L3" s="109"/>
-      <c r="M3" s="109"/>
-      <c r="N3" s="109"/>
-      <c r="O3" s="109"/>
-    </row>
-    <row r="4" spans="1:15" s="108" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="108" t="s">
+      <c r="I3" s="103"/>
+      <c r="J3" s="103"/>
+      <c r="K3" s="103"/>
+      <c r="L3" s="103"/>
+      <c r="M3" s="103"/>
+      <c r="N3" s="103"/>
+      <c r="O3" s="103"/>
+    </row>
+    <row r="4" spans="1:15" s="59" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="110" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="108">
+      <c r="B4" s="111">
         <v>29.41</v>
       </c>
-      <c r="C4" s="108">
+      <c r="C4" s="111">
         <v>35.5</v>
       </c>
-      <c r="D4" s="108">
+      <c r="D4" s="112">
         <v>22.67</v>
       </c>
-      <c r="E4" s="109"/>
-      <c r="F4" s="109"/>
-      <c r="G4" s="108">
+      <c r="E4" s="103"/>
+      <c r="F4" s="103"/>
+      <c r="G4" s="59">
         <f t="shared" si="0"/>
         <v>29.193333333333332</v>
       </c>
-      <c r="H4" s="108">
+      <c r="H4" s="59">
         <f>((G4-E2)^2)*3</f>
         <v>3.0805333333333458</v>
       </c>
-      <c r="I4" s="109"/>
-      <c r="J4" s="109"/>
-      <c r="K4" s="109"/>
-      <c r="L4" s="109"/>
-      <c r="M4" s="109"/>
-      <c r="N4" s="109"/>
-      <c r="O4" s="109"/>
+      <c r="I4" s="103"/>
+      <c r="J4" s="103"/>
+      <c r="K4" s="103"/>
+      <c r="L4" s="103"/>
+      <c r="M4" s="103"/>
+      <c r="N4" s="103"/>
+      <c r="O4" s="103"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A6" s="67" t="s">
+      <c r="A6" s="95" t="s">
         <v>78</v>
       </c>
-      <c r="B6" s="67"/>
-      <c r="C6" s="67"/>
-      <c r="D6" s="67"/>
+      <c r="B6" s="95"/>
+      <c r="C6" s="95"/>
+      <c r="D6" s="95"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
@@ -12393,7 +12526,7 @@
         <v>31.58439999999997</v>
       </c>
       <c r="C8">
-        <f t="shared" ref="C8:C9" si="2">(C3-G3)^2</f>
+        <f t="shared" ref="C8" si="2">(C3-G3)^2</f>
         <v>1.0815999999999981</v>
       </c>
       <c r="D8">
@@ -12420,6 +12553,8 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="K2:K4"/>
     <mergeCell ref="L2:L4"/>
     <mergeCell ref="M2:M4"/>
     <mergeCell ref="N2:N4"/>
@@ -12428,8 +12563,6 @@
     <mergeCell ref="F2:F4"/>
     <mergeCell ref="I2:I4"/>
     <mergeCell ref="J2:J4"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="K2:K4"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
